--- a/simple_ml/example/report1/experiments_data.xlsx
+++ b/simple_ml/example/report1/experiments_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Ridge Regression</t>
   </si>
@@ -35,6 +35,18 @@
   <si>
     <t>weight magtitude</t>
   </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>MBGD</t>
+  </si>
+  <si>
+    <t>test error</t>
+  </si>
 </sst>
 </file>
 
@@ -42,11 +54,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +82,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -99,15 +118,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,36 +133,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,19 +147,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,16 +178,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,6 +226,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -233,19 +352,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,145 +382,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,6 +417,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -430,20 +464,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,11 +496,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,138 +517,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,37 +648,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1028,15 +1033,16 @@
   <sheetPr/>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
-    <col min="3" max="6" width="9.375"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="5" width="12.625"/>
+    <col min="6" max="6" width="9.375"/>
     <col min="8" max="8" width="9.375" customWidth="1"/>
     <col min="9" max="9" width="19.375" customWidth="1"/>
     <col min="12" max="12" width="9.375"/>
@@ -1172,6 +1178,59 @@
       </c>
       <c r="I5">
         <v>0.8256</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>10.2348597065139</v>
+      </c>
+      <c r="C8">
+        <v>10.2348597065139</v>
+      </c>
+      <c r="D8">
+        <v>11.3722521550882</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>17.0820649731349</v>
+      </c>
+      <c r="C9">
+        <v>17.0820649804989</v>
+      </c>
+      <c r="D9">
+        <v>19.0368678771403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>10.2010815721491</v>
+      </c>
+      <c r="C10">
+        <v>10.2010815768652</v>
+      </c>
+      <c r="D10">
+        <v>10.1469994171304</v>
       </c>
     </row>
     <row r="14" spans="2:2">
